--- a/datasets/3-4-1.xlsx
+++ b/datasets/3-4-1.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahmu\Downloads\ods3-datasets-master\3.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4A0425-3D8D-4AA5-9423-49ED5D485A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="48" windowWidth="13332" windowHeight="4200" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -16,14 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
-    <t>
-                    Indicador 3.4.1 - Taxa de mortalidade atribuída a doenças cardiovasculares, câncer, diabetes ou doenças respiratórias crônicas
-                </t>
-  </si>
-  <si>
-    <t>
-                    Probabilidade de morrer atribuída a doenças cardiovasculares, câncer, diabetes ou doenças respiratórias crônicas entre os 30 a 69 anos (%)
-                </t>
+    <t>Indicador 3.4.1 - Taxa de mortalidade atribuída a doenças cardiovasculares, câncer, diabetes ou doenças respiratórias crônicas</t>
+  </si>
+  <si>
+    <t>Probabilidade de morrer atribuída a doenças cardiovasculares, câncer, diabetes ou doenças respiratórias crônicas entre os 30 a 69 anos (%)</t>
   </si>
   <si>
     <t>Brasil, Grandes Regiões e Unidades da Federação</t>
@@ -194,28 +196,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <color indexed="64"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <color rgb="FF333333"/>
     </font>
   </fonts>
   <fills count="5">
@@ -271,19 +273,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,2431 +296,2603 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="21" width="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v/>
-      </c>
-      <c r="C1" s="1">
-        <v/>
-      </c>
-      <c r="D1" s="1">
-        <v/>
-      </c>
-      <c r="E1" s="1">
-        <v/>
-      </c>
-      <c r="F1" s="1">
-        <v/>
-      </c>
-      <c r="G1" s="1">
-        <v/>
-      </c>
-      <c r="H1" s="1">
-        <v/>
-      </c>
-      <c r="I1" s="1">
-        <v/>
-      </c>
-      <c r="J1" s="1">
-        <v/>
-      </c>
-      <c r="K1" s="1">
-        <v/>
-      </c>
-      <c r="L1" s="1">
-        <v/>
-      </c>
-      <c r="M1" s="1">
-        <v/>
-      </c>
-      <c r="N1" s="1">
-        <v/>
-      </c>
-      <c r="O1" s="1">
-        <v/>
-      </c>
-      <c r="P1" s="1">
-        <v/>
-      </c>
-      <c r="Q1" s="1">
-        <v/>
-      </c>
-      <c r="R1" s="1">
-        <v/>
-      </c>
-      <c r="S1" s="1">
-        <v/>
-      </c>
-      <c r="T1" s="1">
-        <v/>
-      </c>
-      <c r="U1" s="1">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v/>
-      </c>
-      <c r="C2" s="2">
-        <v/>
-      </c>
-      <c r="D2" s="2">
-        <v/>
-      </c>
-      <c r="E2" s="2">
-        <v/>
-      </c>
-      <c r="F2" s="2">
-        <v/>
-      </c>
-      <c r="G2" s="2">
-        <v/>
-      </c>
-      <c r="H2" s="2">
-        <v/>
-      </c>
-      <c r="I2" s="2">
-        <v/>
-      </c>
-      <c r="J2" s="2">
-        <v/>
-      </c>
-      <c r="K2" s="2">
-        <v/>
-      </c>
-      <c r="L2" s="2">
-        <v/>
-      </c>
-      <c r="M2" s="2">
-        <v/>
-      </c>
-      <c r="N2" s="2">
-        <v/>
-      </c>
-      <c r="O2" s="2">
-        <v/>
-      </c>
-      <c r="P2" s="2">
-        <v/>
-      </c>
-      <c r="Q2" s="2">
-        <v/>
-      </c>
-      <c r="R2" s="2">
-        <v/>
-      </c>
-      <c r="S2" s="2">
-        <v/>
-      </c>
-      <c r="T2" s="2">
-        <v/>
-      </c>
-      <c r="U2" s="2">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s" s="3">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="3">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="3">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s" s="3">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s" s="3">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s" s="3">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s" s="3">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s" s="3">
+      <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" t="s" s="3">
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s" s="3">
+      <c r="R3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S3" t="s" s="3">
+      <c r="S3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T3" t="s" s="3">
+      <c r="T3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U3" t="s" s="3">
+      <c r="U3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>18.8</v>
       </c>
-      <c r="C4" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D4" s="2">
         <v>18.3</v>
       </c>
-      <c r="E4" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F4" s="2">
         <v>17.8</v>
       </c>
-      <c r="G4" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H4" s="2">
         <v>17.7</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>17.7</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>17.2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>17</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>17</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <v>16.5</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>16.2</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <v>15.8</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <v>15.8</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <v>15.8</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <v>15.4</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="2">
         <v>15.1</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="2">
         <v>15</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="2">
         <v>14.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>13.7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>13.1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>13.6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>13.7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>13.6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>13.7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>14.2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>14.6</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>14.4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>14.3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>14.7</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <v>14.6</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>14.3</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>14.4</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>14.4</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <v>14.4</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2">
         <v>14.5</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="2">
         <v>14.2</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
         <v>14.1</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="2">
         <v>14.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>17.7</v>
       </c>
-      <c r="C6" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E6" s="2">
         <v>17.2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>16</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>15.6</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>14.6</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>15.5</v>
       </c>
-      <c r="J6" s="4">
-        <v>16.1</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K6" s="2">
         <v>15.6</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>15.6</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <v>15.6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>14.8</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <v>14.3</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>14.4</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <v>14.8</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="2">
         <v>14.5</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="2">
         <v>13.6</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
         <v>13.6</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>12.3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>12.2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>14</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>12.2</v>
       </c>
-      <c r="F7" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G7" s="2">
         <v>17.2</v>
       </c>
-      <c r="H7" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I7" s="2">
         <v>15.8</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>15.8</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>15.1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>16.2</v>
       </c>
-      <c r="M7" s="4">
-        <v>16.1</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="M7" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N7" s="2">
         <v>16.8</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>16</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>15.4</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <v>15.2</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <v>15.6</v>
       </c>
-      <c r="S7" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="T7" s="4">
+      <c r="S7" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T7" s="2">
         <v>15.8</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="2">
         <v>14.6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>13.1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>13.2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>12.6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>13.4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>13.8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>13.4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>14</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>14.8</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>14</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>14.1</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>14.8</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <v>14.7</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>14.2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <v>14.6</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>14.1</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <v>14.4</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>14.1</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="2">
         <v>14.2</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
         <v>14.1</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="2">
         <v>13.6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
-        <v>18.1</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D9" s="2">
         <v>18.2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>17.7</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>17.2</v>
       </c>
-      <c r="G9" s="4">
-        <v>16.1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H9" s="2">
         <v>14.4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>14.3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>14.2</v>
       </c>
-      <c r="K9" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L9" s="2">
         <v>16</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <v>13.4</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <v>15.2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>15.4</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>15.2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <v>15.5</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <v>16.8</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="2">
         <v>17.3</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
         <v>17</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="2">
         <v>16.5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>12.6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>11.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>12.4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>12.2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>12.2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>12.8</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>13.6</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>14.1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>14</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>13.8</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>14</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <v>14.1</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <v>14</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <v>13.9</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>14.4</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="2">
         <v>14.1</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="2">
         <v>14.2</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="2">
         <v>13.8</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="2">
         <v>13.8</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="2">
         <v>14.4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C11" s="2">
         <v>14.8</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>14.3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>15.1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>12.4</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>10.8</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>11.1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>13.2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>11.5</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>11.4</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>13.2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <v>15.2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <v>13.7</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>15.7</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>14.4</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="2">
         <v>14.6</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="2">
         <v>14.2</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="2">
         <v>14.4</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="2">
         <v>15.2</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="2">
         <v>14.9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>14.1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>15.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>16</v>
       </c>
-      <c r="E12" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F12" s="2">
         <v>15.5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>15.3</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>15.8</v>
       </c>
-      <c r="I12" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J12" s="2">
         <v>16</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>16</v>
       </c>
-      <c r="L12" s="4">
-        <v>16.1</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="L12" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M12" s="2">
         <v>15.2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <v>14.6</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>15.4</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>14.6</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="2">
         <v>14.7</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="2">
         <v>15.7</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="2">
         <v>14.6</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="2">
         <v>14.4</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>13.7</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>13.8</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>13.8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>14.3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>14.9</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>15.8</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>15.9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>16.2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>15.9</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <v>15.5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>15.9</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="2">
         <v>15.6</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <v>15.4</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>15.2</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <v>15.4</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="2">
         <v>15.5</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="2">
         <v>15.4</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="2">
         <v>15</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="2">
         <v>14.9</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="2">
         <v>14.6</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>9.4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>9.4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>10.1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>10.4</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>13.8</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>13.9</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>14.7</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>15.4</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>15.1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>15</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>15.8</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2">
         <v>15.4</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>15.4</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>15.7</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>15.7</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="2">
         <v>15.6</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="2">
         <v>16</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="2">
         <v>15.4</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="2">
         <v>15</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="2">
         <v>15.9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>12.2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>12.8</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>12.9</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>12.6</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>13.8</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>15.2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>15.6</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>16.2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>15.2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>14.9</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>15.9</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <v>15.6</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>15.1</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>15.6</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>15.7</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="2">
         <v>15.5</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="2">
         <v>15</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="2">
         <v>14.6</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="2">
         <v>14.8</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="2">
         <v>14.5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>12.9</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>13.1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>12.8</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>13</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>13.2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>14.7</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>14.7</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>14.8</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <v>13.9</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>14.3</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <v>14.3</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>13.7</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>13.5</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>14.2</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="2">
         <v>13.9</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="2">
         <v>14.6</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="2">
         <v>14.2</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="2">
         <v>14.2</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>12.3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>12.9</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>11.9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>13.3</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>13.7</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>13.9</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>14.3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>14.5</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>14.7</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <v>13.9</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>15.4</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="2">
         <v>14.9</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <v>14.4</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <v>14.8</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>15</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="2">
         <v>14.9</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="2">
         <v>14.5</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="2">
         <v>14.8</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="2">
         <v>15.1</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="2">
         <v>14.2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>10.7</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>11.4</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>12.2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>13</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>15</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>14.8</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>16.2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>17</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>16.3</v>
       </c>
-      <c r="K18" s="4">
-        <v>16.1</v>
-      </c>
-      <c r="L18" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="M18" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="K18" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L18" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N18" s="2">
         <v>16.3</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <v>16</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <v>15.8</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="2">
         <v>16.2</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="2">
         <v>15.8</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="2">
         <v>15.3</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="2">
         <v>15.8</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="2">
         <v>14.9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
-        <v>18.1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>18.6</v>
-      </c>
-      <c r="E19" s="4">
-        <v>19.4</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="C19" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F19" s="2">
         <v>19.2</v>
       </c>
-      <c r="G19" s="4">
-        <v>19.6</v>
-      </c>
-      <c r="H19" s="4">
-        <v>19.6</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="G19" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I19" s="2">
         <v>19.5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>19</v>
       </c>
-      <c r="K19" s="4">
-        <v>18.9</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="K19" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L19" s="2">
         <v>19</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="2">
         <v>18.2</v>
       </c>
-      <c r="N19" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="O19" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="P19" s="4">
-        <v>18.1</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="N19" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O19" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P19" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q19" s="2">
         <v>18.5</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="2">
         <v>17.5</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="2">
         <v>17</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="2">
         <v>17</v>
       </c>
-      <c r="U19" s="4">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="3">
+      <c r="U19" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>15.8</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>15.8</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>15.1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>15.9</v>
       </c>
-      <c r="F20" s="4">
-        <v>17.6</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G20" s="2">
         <v>17.3</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>18.5</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>17.8</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>18.2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <v>17.7</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>18.5</v>
       </c>
-      <c r="M20" s="4">
-        <v>18.1</v>
-      </c>
-      <c r="N20" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="O20" s="4">
+      <c r="M20" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N20" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O20" s="2">
         <v>17.5</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <v>18</v>
       </c>
-      <c r="Q20" s="4">
-        <v>18.6</v>
-      </c>
-      <c r="R20" s="4">
+      <c r="Q20" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="R20" s="2">
         <v>18.2</v>
       </c>
-      <c r="S20" s="4">
-        <v>17.1</v>
-      </c>
-      <c r="T20" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="U20" s="4">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="3">
+      <c r="S20" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T20" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="U20" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>14.6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>15.2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>14.8</v>
       </c>
-      <c r="E21" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G21" s="2">
         <v>17.2</v>
       </c>
-      <c r="H21" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="I21" s="4">
-        <v>17.6</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="H21" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J21" s="2">
         <v>17.3</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>16.5</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>16.2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="2">
         <v>16.2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2">
         <v>15.9</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <v>15.5</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="2">
         <v>16</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="2">
         <v>14.9</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="2">
         <v>15</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="2">
         <v>14.1</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="2">
         <v>13.9</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>13.8</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>13.6</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>13.3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>13.4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>13</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>15</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>14.5</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>14.6</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>14.5</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <v>14.2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>14.4</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="2">
         <v>14.2</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="2">
         <v>14</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="2">
         <v>13.8</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="2">
         <v>13.7</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="2">
         <v>13.7</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="2">
         <v>13.8</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="2">
         <v>13.7</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="2">
         <v>13.3</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="2">
         <v>13.4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>20.8</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>20.3</v>
       </c>
-      <c r="D23" s="4">
-        <v>20.1</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E23" s="2">
         <v>20</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>19</v>
       </c>
-      <c r="G23" s="4">
-        <v>18.9</v>
-      </c>
-      <c r="H23" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="I23" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="G23" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J23" s="2">
         <v>17.8</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <v>17.8</v>
       </c>
-      <c r="L23" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="M23" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="N23" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="O23" s="4">
+      <c r="L23" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M23" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="O23" s="2">
         <v>16</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="2">
         <v>16</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="2">
         <v>16.2</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="2">
         <v>15.5</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="2">
         <v>15.3</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="2">
         <v>15.2</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="2">
         <v>14.6</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C24" s="2">
         <v>17</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>17.3</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>17.3</v>
       </c>
-      <c r="F24" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="G24" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="F24" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H24" s="2">
         <v>16.2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>15.6</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>15.2</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <v>15.5</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <v>15.3</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="2">
         <v>14.9</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2">
         <v>14.5</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <v>14.3</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="2">
         <v>14.1</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="2">
         <v>14.2</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="2">
         <v>13.8</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="2">
         <v>13.5</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="2">
         <v>13.6</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="2">
         <v>13.3</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>18.5</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>18.8</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>19.8</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>20.3</v>
       </c>
-      <c r="F25" s="4">
-        <v>19.4</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G25" s="2">
         <v>19.2</v>
       </c>
-      <c r="H25" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I25" s="2">
         <v>18.7</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>18.2</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <v>17.3</v>
       </c>
-      <c r="L25" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="M25" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="L25" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N25" s="2">
         <v>15.8</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="2">
         <v>15.1</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="2">
         <v>15.1</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="2">
         <v>15.2</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="2">
         <v>14.9</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="2">
         <v>14.6</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="2">
         <v>14.9</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="2">
         <v>14.4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>23.3</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>22.8</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>22.1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>22.1</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>20.9</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>21.2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>20.7</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <v>21.1</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>20.6</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <v>20.3</v>
       </c>
-      <c r="L26" s="4">
-        <v>19.9</v>
-      </c>
-      <c r="M26" s="4">
-        <v>19.1</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="L26" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M26" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N26" s="2">
         <v>19</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="2">
         <v>18</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="2">
         <v>18</v>
       </c>
-      <c r="Q26" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="R26" s="4">
+      <c r="Q26" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="R26" s="2">
         <v>17.2</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="2">
         <v>17.2</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="2">
         <v>16.7</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>21.3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>20.8</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>20.5</v>
       </c>
-      <c r="E27" s="4">
-        <v>20.4</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="E27" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F27" s="2">
         <v>19.2</v>
       </c>
-      <c r="G27" s="4">
-        <v>18.9</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H27" s="2">
         <v>18.5</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>18.5</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>17.8</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <v>17.8</v>
       </c>
-      <c r="L27" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="M27" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="N27" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="O27" s="4">
-        <v>16.1</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="L27" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M27" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N27" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="O27" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P27" s="2">
         <v>16.2</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="2">
         <v>16.2</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="2">
         <v>15.6</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="2">
         <v>15.4</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="2">
         <v>15.3</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="2">
         <v>14.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>22</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>21.6</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>21.1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>20.9</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>19.8</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>19.5</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="2">
         <v>19.3</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>18.8</v>
       </c>
-      <c r="J28" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="J28" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K28" s="2">
         <v>18.2</v>
       </c>
-      <c r="L28" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="M28" s="4">
+      <c r="L28" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M28" s="2">
         <v>17.2</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="2">
         <v>17.2</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="2">
         <v>16.2</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="2">
         <v>16</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="2">
         <v>16.2</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="2">
         <v>15.4</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="2">
         <v>15.3</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="2">
         <v>15</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="2">
         <v>14.2</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>22.3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>22.5</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>21.6</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>21.4</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>20.3</v>
       </c>
-      <c r="G29" s="4">
-        <v>19.9</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H29" s="2">
         <v>19.5</v>
       </c>
-      <c r="I29" s="4">
-        <v>19.6</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J29" s="2">
         <v>18.8</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <v>18.5</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <v>18.3</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="2">
         <v>17.5</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="2">
         <v>17.5</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="2">
         <v>16.5</v>
       </c>
-      <c r="P29" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="R29" s="4">
+      <c r="P29" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R29" s="2">
         <v>15.5</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="2">
         <v>15.4</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="2">
         <v>14.8</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29" s="2">
         <v>14.5</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>19.8</v>
       </c>
-      <c r="C30" s="4">
-        <v>19.4</v>
-      </c>
-      <c r="D30" s="4">
-        <v>19.4</v>
-      </c>
-      <c r="E30" s="4">
-        <v>19.6</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="C30" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F30" s="2">
         <v>18</v>
       </c>
-      <c r="G30" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H30" s="2">
         <v>17.5</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>17</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>17.2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="2">
         <v>17</v>
       </c>
-      <c r="L30" s="4">
-        <v>17.1</v>
-      </c>
-      <c r="M30" s="4">
+      <c r="L30" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M30" s="2">
         <v>16.5</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="2">
         <v>15.7</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="2">
         <v>15.4</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="2">
         <v>15.1</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="2">
         <v>15.2</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="2">
         <v>14.7</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="2">
         <v>14.6</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="2">
         <v>14.3</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>22.8</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>21.8</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>21.4</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>21.1</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>20.3</v>
       </c>
-      <c r="G31" s="4">
-        <v>20.1</v>
-      </c>
-      <c r="H31" s="4">
-        <v>19.9</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="G31" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H31" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I31" s="2">
         <v>19</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>18.7</v>
       </c>
-      <c r="K31" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="K31" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L31" s="2">
         <v>18</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="2">
         <v>17.3</v>
       </c>
-      <c r="N31" s="4">
-        <v>17.6</v>
-      </c>
-      <c r="O31" s="4">
+      <c r="N31" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O31" s="2">
         <v>16.5</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="2">
         <v>16.2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="2">
         <v>16.5</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="2">
         <v>15.8</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="2">
         <v>15.7</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="2">
         <v>15.4</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31" s="2">
         <v>14.3</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>19.2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>19.3</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>19.2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>19.5</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>18.7</v>
       </c>
-      <c r="G32" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H32" s="2">
         <v>17.8</v>
       </c>
-      <c r="I32" s="4">
-        <v>18.1</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="I32" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J32" s="2">
         <v>17.2</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="2">
         <v>17.3</v>
       </c>
-      <c r="L32" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="M32" s="4">
+      <c r="L32" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M32" s="2">
         <v>16.7</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="2">
         <v>16.3</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="2">
         <v>16</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="2">
         <v>15.6</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="2">
         <v>15.2</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="2">
         <v>15.2</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32" s="2">
         <v>14.9</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="2">
         <v>14.4</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U32" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>21.2</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>20.3</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>21.2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>21.1</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>21</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>21</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="2">
         <v>19.5</v>
       </c>
-      <c r="I33" s="4">
-        <v>19.9</v>
-      </c>
-      <c r="J33" s="4">
-        <v>18.6</v>
-      </c>
-      <c r="K33" s="4">
-        <v>19.4</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="I33" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J33" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K33" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L33" s="2">
         <v>18.2</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="2">
         <v>18</v>
       </c>
-      <c r="N33" s="4">
-        <v>18.1</v>
-      </c>
-      <c r="O33" s="4">
+      <c r="N33" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O33" s="2">
         <v>17.3</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="2">
         <v>17</v>
       </c>
-      <c r="Q33" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="R33" s="4">
+      <c r="Q33" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="R33" s="2">
         <v>16.5</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33" s="2">
         <v>17</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="2">
         <v>15.7</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="2">
         <v>15.4</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="4">
-        <v>19.1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>19.6</v>
-      </c>
-      <c r="D34" s="4">
-        <v>19.4</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="B34" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C34" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E34" s="2">
         <v>19</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>18.3</v>
       </c>
-      <c r="G34" s="4">
-        <v>18.1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>17.6</v>
-      </c>
-      <c r="I34" s="4">
+      <c r="G34" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I34" s="2">
         <v>18</v>
       </c>
-      <c r="J34" s="4">
-        <v>17.1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="J34" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K34" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L34" s="2">
         <v>17</v>
       </c>
-      <c r="M34" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="N34" s="4">
+      <c r="M34" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N34" s="2">
         <v>15.8</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="2">
         <v>15.4</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="2">
         <v>15.2</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="2">
         <v>15.4</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="2">
         <v>15.3</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34" s="2">
         <v>14.9</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="2">
         <v>14.5</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="2">
         <v>14.1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="C35" s="4">
-        <v>18.6</v>
-      </c>
-      <c r="D35" s="4">
-        <v>18.4</v>
-      </c>
-      <c r="E35" s="4">
-        <v>19.1</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="B35" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C35" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F35" s="2">
         <v>17.7</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>17.5</v>
       </c>
-      <c r="H35" s="4">
-        <v>17.6</v>
-      </c>
-      <c r="I35" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="H35" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J35" s="2">
         <v>17.2</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="2">
         <v>17</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="2">
         <v>17</v>
       </c>
-      <c r="M35" s="4">
-        <v>17.1</v>
-      </c>
-      <c r="N35" s="4">
+      <c r="M35" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N35" s="2">
         <v>16.7</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="2">
         <v>16.7</v>
       </c>
-      <c r="P35" s="4">
-        <v>16.4</v>
-      </c>
-      <c r="Q35" s="4">
+      <c r="P35" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Q35" s="2">
         <v>15.7</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="2">
         <v>15.8</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="2">
         <v>15.3</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="2">
         <v>15.1</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="2">
         <v>14.7</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>20.8</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>20</v>
       </c>
-      <c r="D36" s="4">
-        <v>19.1</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E36" s="2">
         <v>19.5</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>19</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>18</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="2">
         <v>17</v>
       </c>
-      <c r="I36" s="4">
-        <v>16.6</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="I36" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J36" s="2">
         <v>16</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="2">
         <v>15.5</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="2">
         <v>15.3</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="2">
         <v>14.8</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="2">
         <v>14</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="2">
         <v>13.8</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="2">
         <v>12.9</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="2">
         <v>11.9</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="2">
         <v>12.4</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36" s="2">
         <v>11.6</v>
       </c>
-      <c r="T36" s="4">
+      <c r="T36" s="2">
         <v>11.5</v>
       </c>
-      <c r="U36" s="4">
+      <c r="U36" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="3">
-        <v/>
-      </c>
-      <c r="C37" s="3">
-        <v/>
-      </c>
-      <c r="D37" s="3">
-        <v/>
-      </c>
-      <c r="E37" s="3">
-        <v/>
-      </c>
-      <c r="F37" s="3">
-        <v/>
-      </c>
-      <c r="G37" s="3">
-        <v/>
-      </c>
-      <c r="H37" s="3">
-        <v/>
-      </c>
-      <c r="I37" s="3">
-        <v/>
-      </c>
-      <c r="J37" s="3">
-        <v/>
-      </c>
-      <c r="K37" s="3">
-        <v/>
-      </c>
-      <c r="L37" s="3">
-        <v/>
-      </c>
-      <c r="M37" s="3">
-        <v/>
-      </c>
-      <c r="N37" s="3">
-        <v/>
-      </c>
-      <c r="O37" s="3">
-        <v/>
-      </c>
-      <c r="P37" s="3">
-        <v/>
-      </c>
-      <c r="Q37" s="3">
-        <v/>
-      </c>
-      <c r="R37" s="3">
-        <v/>
-      </c>
-      <c r="S37" s="3">
-        <v/>
-      </c>
-      <c r="T37" s="3">
-        <v/>
-      </c>
-      <c r="U37" s="3">
-        <v/>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
     <mergeCell ref="A37:U37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
